--- a/plan/etc/コントローラー関連整理表.xlsx
+++ b/plan/etc/コントローラー関連整理表.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imagepit/Desktop/fullness-ec-team0/plan/etc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imagepit/Downloads/fullness-ec-team0-master/plan/etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539B75E9-4616-C149-9823-FC04351DBE70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384FF658-87DF-E944-A9AA-BD6C1F69C616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コントローラー整理" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -557,13 +567,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>注文確認（掲載方法選択）</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>frontend/login</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -984,6 +987,16 @@
   </si>
   <si>
     <t>productCategoryAddForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文確認（決済方法選択）</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ケッサイ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1251,6 +1264,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1260,6 +1291,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1278,8 +1321,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1297,51 +1355,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1664,7 +1677,7 @@
   <dimension ref="B2:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:G33"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="18" customHeight="1"/>
@@ -1686,26 +1699,26 @@
   <sheetData>
     <row r="2" spans="2:17" ht="18" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P2" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1">
-      <c r="B3" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>5</v>
@@ -1717,7 +1730,7 @@
         <v>50</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>54</v>
@@ -1729,91 +1742,91 @@
         <v>99</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="30"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="2:17" ht="18" customHeight="1">
       <c r="B5" s="3"/>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="33"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="2:17" ht="18" customHeight="1">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="33"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="48"/>
     </row>
     <row r="7" spans="2:17" ht="18" customHeight="1">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="33"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="48"/>
     </row>
     <row r="8" spans="2:17" ht="16" customHeight="1">
       <c r="B8" s="3"/>
@@ -1821,7 +1834,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="14" t="s">
@@ -1861,14 +1874,14 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" s="22"/>
+      <c r="F9" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="32"/>
       <c r="H9" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -1886,11 +1899,11 @@
       <c r="N9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>188</v>
+      <c r="O9" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>187</v>
       </c>
       <c r="Q9" s="5" t="str">
         <f t="shared" ref="Q9:Q24" si="0">$Q$2&amp;L9</f>
@@ -1902,10 +1915,10 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="5" t="s">
         <v>46</v>
       </c>
@@ -1921,8 +1934,8 @@
       <c r="N10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
       <c r="Q10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8080/signup/confirm</v>
@@ -1933,10 +1946,10 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="20"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="5" t="s">
         <v>47</v>
       </c>
@@ -1947,13 +1960,13 @@
         <v>26</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
       <c r="Q11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8080/signup/complete</v>
@@ -1965,7 +1978,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="14" t="s">
@@ -1984,16 +1997,16 @@
         <v>22</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2005,14 +2018,14 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="G13" s="22"/>
+      <c r="F13" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="32"/>
       <c r="H13" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I13" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="24" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -2025,10 +2038,10 @@
         <v>23</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>16</v>
@@ -2046,10 +2059,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="19"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="5" t="s">
         <v>49</v>
       </c>
@@ -2060,10 +2073,10 @@
         <v>23</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>16</v>
@@ -2081,10 +2094,10 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="5" t="s">
         <v>27</v>
       </c>
@@ -2095,10 +2108,10 @@
         <v>53</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>16</v>
@@ -2116,14 +2129,14 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="G16" s="22"/>
+      <c r="F16" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="32"/>
       <c r="H16" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="I16" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J16" s="5" t="s">
@@ -2133,10 +2146,10 @@
         <v>52</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>16</v>
@@ -2157,10 +2170,10 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="20"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="5" t="s">
         <v>29</v>
       </c>
@@ -2168,13 +2181,13 @@
         <v>51</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>16</v>
@@ -2192,18 +2205,18 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="G18" s="22"/>
+      <c r="F18" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="32"/>
       <c r="H18" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>201</v>
+        <v>161</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>200</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>51</v>
@@ -2215,13 +2228,13 @@
         <v>101</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="P18" s="18" t="s">
-        <v>190</v>
+        <v>115</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>189</v>
       </c>
       <c r="Q18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2233,10 +2246,10 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="19"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="5" t="s">
         <v>30</v>
       </c>
@@ -2250,10 +2263,10 @@
         <v>102</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
+        <v>116</v>
+      </c>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
       <c r="Q19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8080/order/confirm</v>
@@ -2264,10 +2277,10 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="20"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="5" t="s">
         <v>31</v>
       </c>
@@ -2278,13 +2291,13 @@
         <v>34</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
+        <v>117</v>
+      </c>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
       <c r="Q20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8080/order/complete</v>
@@ -2295,15 +2308,15 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="22"/>
+      <c r="F21" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="32"/>
       <c r="H21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="18" t="s">
-        <v>202</v>
+      <c r="I21" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>38</v>
@@ -2318,7 +2331,7 @@
         <v>102</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>16</v>
@@ -2336,10 +2349,10 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="5" t="s">
         <v>39</v>
       </c>
@@ -2350,10 +2363,10 @@
         <v>41</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>16</v>
@@ -2372,14 +2385,14 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>35</v>
@@ -2391,10 +2404,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O23" s="5" t="s">
         <v>16</v>
@@ -2413,14 +2426,14 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="14" t="s">
         <v>42</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>43</v>
@@ -2432,7 +2445,7 @@
         <v>24</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>16</v>
@@ -2452,59 +2465,59 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="30"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="45"/>
     </row>
     <row r="26" spans="2:17" ht="17" customHeight="1">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35" t="s">
+      <c r="F26" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="36" t="s">
+      <c r="I26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K26" s="36" t="s">
+      <c r="K26" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="L26" s="36" t="s">
+      <c r="L26" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="M26" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="N26" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="O26" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="P26" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q26" s="36" t="str">
+      <c r="M26" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="20" t="str">
         <f>$Q$2&amp;L26</f>
         <v>http://localhost:8080/admin</v>
       </c>
@@ -2515,37 +2528,37 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="38"/>
+      <c r="H27" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="O27" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="I27" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="N27" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="O27" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="P27" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q27" s="36" t="str">
+      <c r="P27" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q27" s="20" t="str">
         <f>$Q$2&amp;L27</f>
         <v>http://localhost:8080/admin/emp-add</v>
       </c>
@@ -2555,28 +2568,28 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="36" t="s">
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="M28" s="36" t="s">
+      <c r="M28" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="N28" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="36" t="str">
+      <c r="N28" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="20" t="str">
         <f t="shared" ref="Q28:Q49" si="1">$Q$2&amp;L28</f>
         <v>http://localhost:8080/admin/emp-add/confirm</v>
       </c>
@@ -2586,28 +2599,28 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="36" t="s">
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="K29" s="36" t="s">
+      <c r="K29" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L29" s="36" t="s">
+      <c r="L29" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M29" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="N29" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="36" t="str">
+      <c r="M29" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="20" t="str">
         <f t="shared" ref="Q29" si="2">$Q$2&amp;L29</f>
         <v>http://localhost:8080/admin/emp-add/complete</v>
       </c>
@@ -2617,28 +2630,28 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="36" t="s">
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="K30" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="L30" s="36" t="s">
+      <c r="M30" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="M30" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="N30" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="36" t="str">
+      <c r="N30" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="20" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/emp-add/cancel</v>
       </c>
@@ -2649,37 +2662,37 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" s="38"/>
+      <c r="H31" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="O31" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="I31" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="L31" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="M31" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="N31" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="O31" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="P31" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q31" s="36" t="str">
+      <c r="P31" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q31" s="20" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/product-add</v>
       </c>
@@ -2689,28 +2702,28 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="36" t="s">
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="K32" s="36" t="s">
+      <c r="K32" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="L32" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M32" s="36" t="s">
+      <c r="M32" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="N32" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="36" t="str">
+      <c r="N32" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="20" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/product-add/confirm</v>
       </c>
@@ -2720,28 +2733,28 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="36" t="s">
+      <c r="F33" s="41"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="K33" s="36" t="s">
+      <c r="K33" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L33" s="36" t="s">
+      <c r="L33" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M33" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="N33" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="36" t="str">
+      <c r="M33" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="N33" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="20" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/product-add/complete</v>
       </c>
@@ -2752,37 +2765,37 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G34" s="38"/>
-      <c r="H34" s="39" t="s">
+      <c r="H34" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="I34" s="40" t="s">
+      <c r="I34" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="36" t="s">
+      <c r="J34" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="K34" s="36" t="s">
+      <c r="K34" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="L34" s="36" t="s">
+      <c r="L34" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="M34" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="N34" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="O34" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="P34" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q34" s="36" t="str">
+      <c r="M34" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="N34" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="20" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/product</v>
       </c>
@@ -2792,32 +2805,32 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="36" t="s">
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="K35" s="36" t="s">
+      <c r="K35" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L35" s="36" t="s">
+      <c r="L35" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="M35" s="36" t="s">
+      <c r="M35" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="N35" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="N35" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="O35" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="P35" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q35" s="36" t="str">
+      <c r="O35" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="20" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/product</v>
       </c>
@@ -2828,37 +2841,37 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G36" s="38"/>
-      <c r="H36" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="I36" s="40" t="s">
+      <c r="H36" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="36" t="s">
+      <c r="J36" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="K36" s="36" t="s">
+      <c r="K36" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="M36" s="36" t="s">
+      <c r="L36" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="M36" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="N36" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="O36" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="P36" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q36" s="36" t="str">
+      <c r="N36" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="O36" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="P36" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q36" s="20" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/product-update/{productId}</v>
       </c>
@@ -2868,28 +2881,28 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="36" t="s">
+      <c r="F37" s="39"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="K37" s="36" t="s">
+      <c r="K37" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L37" s="36" t="s">
+      <c r="L37" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="M37" s="36" t="s">
+      <c r="M37" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="N37" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="36" t="str">
+      <c r="N37" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="20" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/product-update/confirm</v>
       </c>
@@ -2899,28 +2912,28 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="36" t="s">
+      <c r="F38" s="41"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="K38" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L38" s="36" t="s">
+      <c r="L38" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="M38" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="N38" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="36" t="str">
+      <c r="M38" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="N38" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="20" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/product-update/complete</v>
       </c>
@@ -2931,37 +2944,37 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G39" s="38"/>
-      <c r="H39" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="I39" s="40" t="s">
+      <c r="H39" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I39" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="36" t="s">
+      <c r="J39" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="K39" s="36" t="s">
+      <c r="K39" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="L39" s="36" t="s">
+      <c r="L39" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="M39" s="36" t="s">
+      <c r="M39" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="N39" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="O39" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="P39" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q39" s="36" t="str">
+      <c r="N39" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="O39" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q39" s="20" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/product-delete/{productId}</v>
       </c>
@@ -2971,32 +2984,32 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="36" t="s">
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="K40" s="36" t="s">
+      <c r="K40" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L40" s="36" t="s">
+      <c r="L40" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="M40" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="N40" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="O40" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="P40" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q40" s="36" t="str">
+      <c r="M40" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="N40" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q40" s="20" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/product-delete</v>
       </c>
@@ -3007,37 +3020,37 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="38"/>
+      <c r="H41" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="M41" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N41" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="O41" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="I41" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="K41" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="L41" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="M41" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="N41" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="O41" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="P41" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q41" s="36" t="str">
+      <c r="P41" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q41" s="20" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/product-category-add</v>
       </c>
@@ -3047,28 +3060,28 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="36" t="s">
+      <c r="F42" s="39"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="K42" s="36" t="s">
+      <c r="K42" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L42" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="M42" s="36" t="s">
+      <c r="L42" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="M42" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="N42" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="36" t="str">
+      <c r="N42" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="20" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/product-category-add/confirm</v>
       </c>
@@ -3078,28 +3091,28 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="36" t="s">
+      <c r="F43" s="41"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="K43" s="36" t="s">
+      <c r="K43" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L43" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="M43" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="N43" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="36" t="str">
+      <c r="L43" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="M43" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="N43" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="20" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/product-category-add/complete</v>
       </c>
@@ -3109,14 +3122,14 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="22"/>
+      <c r="F44" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="32"/>
       <c r="H44" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="24" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="5" t="s">
@@ -3129,10 +3142,10 @@
         <v>90</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>16</v>
@@ -3150,10 +3163,10 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="20"/>
+      <c r="I45" s="26"/>
       <c r="J45" s="5" t="s">
         <v>89</v>
       </c>
@@ -3164,10 +3177,10 @@
         <v>90</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O45" s="5" t="s">
         <v>16</v>
@@ -3185,14 +3198,14 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="G46" s="22"/>
+      <c r="F46" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="32"/>
       <c r="H46" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="I46" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I46" s="24" t="s">
         <v>18</v>
       </c>
       <c r="J46" s="5" t="s">
@@ -3208,13 +3221,13 @@
         <v>101</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q46" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3226,10 +3239,10 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="24"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="34"/>
       <c r="H47" s="16"/>
-      <c r="I47" s="19"/>
+      <c r="I47" s="25"/>
       <c r="J47" s="5" t="s">
         <v>92</v>
       </c>
@@ -3240,10 +3253,10 @@
         <v>95</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>16</v>
@@ -3261,10 +3274,10 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="26"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="36"/>
       <c r="H48" s="17"/>
-      <c r="I48" s="20"/>
+      <c r="I48" s="26"/>
       <c r="J48" s="5" t="s">
         <v>93</v>
       </c>
@@ -3275,10 +3288,10 @@
         <v>95</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O48" s="5" t="s">
         <v>16</v>
@@ -3296,55 +3309,61 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="G49" s="34"/>
-      <c r="H49" s="35" t="s">
+      <c r="F49" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G49" s="18"/>
+      <c r="H49" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I49" s="36" t="s">
+      <c r="I49" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J49" s="36" t="s">
+      <c r="J49" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="K49" s="36" t="s">
+      <c r="K49" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="L49" s="36" t="s">
+      <c r="L49" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="M49" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="N49" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="O49" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="P49" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q49" s="36" t="str">
+      <c r="M49" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="N49" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="O49" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="P49" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q49" s="20" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/login</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P27:P30"/>
+    <mergeCell ref="P31:P33"/>
+    <mergeCell ref="P36:P38"/>
+    <mergeCell ref="P41:P43"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O27:O30"/>
+    <mergeCell ref="O31:O33"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="F39:G40"/>
+    <mergeCell ref="F41:G43"/>
+    <mergeCell ref="F44:G45"/>
+    <mergeCell ref="F31:G33"/>
+    <mergeCell ref="F34:G35"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="F9:G11"/>
     <mergeCell ref="F13:G15"/>
@@ -3361,23 +3380,17 @@
     <mergeCell ref="O36:O38"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I13:I15"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="F39:G40"/>
-    <mergeCell ref="F41:G43"/>
-    <mergeCell ref="F44:G45"/>
-    <mergeCell ref="F31:G33"/>
-    <mergeCell ref="F34:G35"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P27:P30"/>
-    <mergeCell ref="P31:P33"/>
-    <mergeCell ref="P36:P38"/>
-    <mergeCell ref="P41:P43"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O27:O30"/>
-    <mergeCell ref="O31:O33"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="I44:I45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/etc/コントローラー関連整理表.xlsx
+++ b/plan/etc/コントローラー関連整理表.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imagepit/Downloads/fullness-ec-team0-master/plan/etc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imagepit/git/fullness-ec/plan/etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384FF658-87DF-E944-A9AA-BD6C1F69C616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FB2A09-4250-FB4C-95E7-60B7F9C7D0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コントローラー整理" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="216">
   <si>
     <t>frontend</t>
     <phoneticPr fontId="1"/>
@@ -162,13 +152,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>注文確認</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>注文完了</t>
     <rPh sb="0" eb="2">
       <t>チュウモn</t>
@@ -183,10 +166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/order/confirm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/order/complete</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -205,28 +184,6 @@
     <t>購入キャンセル</t>
   </si>
   <si>
-    <t>購入キャンセル確認</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入キャンセル完了</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/order-cancel/confirm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/order-cancel/complete</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログアウト</t>
   </si>
   <si>
@@ -356,10 +313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/admin/emp-add</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/admin/emp-add/confirm</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -368,19 +321,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/admin/product-add</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/admin/product-add/confirm</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>/admin/product-add/complete</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/admin/product</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -599,22 +544,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>frontend/order/confirm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>frontend/order/complete</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>frontend/order-cancel/confirm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>frontend/order-cancel/complete</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>frontend/order/list</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -669,13 +602,7 @@
     <t>ProductListController</t>
   </si>
   <si>
-    <t>OrderCancelAddController</t>
-  </si>
-  <si>
     <t>OrderHistoryController</t>
-  </si>
-  <si>
-    <t>LogoutController</t>
   </si>
   <si>
     <t>MenuController</t>
@@ -724,9 +651,6 @@
     <t>商品カテゴリ登録</t>
   </si>
   <si>
-    <t>配送手続き</t>
-  </si>
-  <si>
     <t>backend/product-delete/confirm</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -796,10 +720,6 @@
   </si>
   <si>
     <t>ProductCategoryForm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OrderDelivaryUpdateController</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -996,6 +916,78 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t xml:space="preserve">ケッサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/admin/emp-add/form</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/admin/product-add/form</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/admin/product-search</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二次フェーズ開発</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ニジ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">カイハツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一次フェーズ開発</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イチ </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ニジ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">カイハツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入キャンセル</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/order-cancel/{productId}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cancel()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frontend/order-cancel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CustomerLogoutController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OrderStatusUpdateController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文ステータス更新</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チュウモン </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">コウシン </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1034,7 +1026,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1068,6 +1060,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDDEF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,7 +1207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1225,9 +1223,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1249,21 +1244,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1282,63 +1262,36 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1355,6 +1308,69 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1363,6 +1379,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFDDEF"/>
+      <color rgb="FFFF40FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1674,197 +1696,197 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Q49"/>
+  <dimension ref="B2:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="3.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="37.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="41.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.83203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="24.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="59.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="62.83203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="22.1640625" style="1" customWidth="1"/>
     <col min="19" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="18" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>197</v>
+        <v>159</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1">
-      <c r="B3" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="10" t="s">
-        <v>143</v>
+      <c r="B3" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>198</v>
+        <v>49</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="18" customHeight="1">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="30"/>
     </row>
     <row r="5" spans="2:17" ht="18" customHeight="1">
       <c r="B5" s="3"/>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="33"/>
     </row>
     <row r="6" spans="2:17" ht="18" customHeight="1">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="2:17" ht="18" customHeight="1">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="48"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="2:17" ht="16" customHeight="1">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="F8" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="5" t="str">
+      <c r="M8" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="36" t="str">
         <f>$Q$2&amp;L8</f>
         <v>http://localhost:8080/</v>
       </c>
@@ -1874,39 +1896,39 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="24" t="s">
+      <c r="F9" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q9" s="5" t="str">
-        <f t="shared" ref="Q9:Q24" si="0">$Q$2&amp;L9</f>
+      <c r="M9" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q9" s="36" t="str">
+        <f t="shared" ref="Q9:Q22" si="0">$Q$2&amp;L9</f>
         <v>http://localhost:8080/signup</v>
       </c>
     </row>
@@ -1915,28 +1937,28 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="5" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="5" t="str">
+      <c r="M10" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="36" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8080/signup/confirm</v>
       </c>
@@ -1946,28 +1968,28 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="5" t="s">
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="5" t="str">
+      <c r="M11" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="36" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8080/signup/complete</v>
       </c>
@@ -1977,38 +1999,38 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="F12" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="5" t="s">
+      <c r="J12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q12" s="5" t="str">
+      <c r="M12" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q12" s="36" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8080/login</v>
       </c>
@@ -2018,38 +2040,38 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="I13" s="24" t="s">
+      <c r="F13" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="5" t="s">
+      <c r="J13" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="5" t="str">
+      <c r="M13" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="36" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8080/product</v>
       </c>
@@ -2059,32 +2081,32 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="5" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q14" s="5" t="str">
+      <c r="M14" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="36" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8080/product</v>
       </c>
@@ -2094,32 +2116,32 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="5" t="s">
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="5" t="str">
+      <c r="K15" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="36" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8080/product/{productId}</v>
       </c>
@@ -2129,38 +2151,38 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="24" t="s">
+      <c r="F16" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" s="5" t="str">
+      <c r="K16" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="36" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8080/cart/add</v>
       </c>
@@ -2170,32 +2192,32 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="5" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q17" s="5" t="str">
+      <c r="K17" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="36" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8080/cart/list</v>
       </c>
@@ -2205,38 +2227,38 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="O18" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="P18" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q18" s="5" t="str">
+      <c r="F18" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="O18" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q18" s="36" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8080/order/form</v>
       </c>
@@ -2246,30 +2268,30 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="5" t="s">
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="5" t="str">
+      <c r="K19" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>http://localhost:8080/order/confirm</v>
+        <v>http://localhost:8080/order/complete</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="16" customHeight="1">
@@ -2277,30 +2299,38 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="5" t="str">
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>http://localhost:8080/order/complete</v>
+        <v>http://localhost:8080/order-cancel/{productId}</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="16" customHeight="1">
@@ -2308,40 +2338,40 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>http://localhost:8080/order-cancel/confirm</v>
+      <c r="F21" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="O21" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="36" t="str">
+        <f>$Q$2&amp;L21</f>
+        <v>http://localhost:8080/order/list</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="16" customHeight="1">
@@ -2349,177 +2379,173 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="5" t="str">
+      <c r="F22" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>http://localhost:8080/order-cancel/complete</v>
+        <v>http://localhost:8080/logout</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="16" customHeight="1">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>http://localhost:8080/order/list</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="16" customHeight="1">
+      <c r="E23" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="30"/>
+    </row>
+    <row r="24" spans="2:17" ht="17" customHeight="1">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="5" t="s">
+      <c r="F24" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>http://localhost:8080/logout</v>
+      <c r="I24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="14" t="str">
+        <f>$Q$2&amp;L24</f>
+        <v>http://localhost:8080/admin</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="16" customHeight="1">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="45"/>
-    </row>
-    <row r="26" spans="2:17" ht="17" customHeight="1">
+      <c r="E25" s="3"/>
+      <c r="F25" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q25" s="14" t="str">
+        <f>$Q$2&amp;L25</f>
+        <v>http://localhost:8080/admin/emp-add/form</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="16" customHeight="1">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="M26" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="N26" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="O26" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="P26" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q26" s="20" t="str">
-        <f>$Q$2&amp;L26</f>
-        <v>http://localhost:8080/admin</v>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="14" t="str">
+        <f t="shared" ref="Q26:Q47" si="1">$Q$2&amp;L26</f>
+        <v>http://localhost:8080/admin/emp-add/confirm</v>
       </c>
     </row>
     <row r="27" spans="2:17" ht="16" customHeight="1">
@@ -2527,40 +2553,30 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="N27" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="O27" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="P27" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q27" s="20" t="str">
-        <f>$Q$2&amp;L27</f>
-        <v>http://localhost:8080/admin/emp-add</v>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="14" t="str">
+        <f t="shared" ref="Q27" si="2">$Q$2&amp;L27</f>
+        <v>http://localhost:8080/admin/emp-add/complete</v>
       </c>
     </row>
     <row r="28" spans="2:17" ht="16" customHeight="1">
@@ -2568,30 +2584,30 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="N28" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="20" t="str">
-        <f t="shared" ref="Q28:Q49" si="1">$Q$2&amp;L28</f>
-        <v>http://localhost:8080/admin/emp-add/confirm</v>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:8080/admin/emp-add/cancel</v>
       </c>
     </row>
     <row r="29" spans="2:17" ht="16" customHeight="1">
@@ -2599,30 +2615,40 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="M29" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="20" t="str">
-        <f t="shared" ref="Q29" si="2">$Q$2&amp;L29</f>
-        <v>http://localhost:8080/admin/emp-add/complete</v>
+      <c r="F29" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="O29" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q29" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>http://localhost:8080/admin/product-add/form</v>
       </c>
     </row>
     <row r="30" spans="2:17" ht="16" customHeight="1">
@@ -2630,30 +2656,30 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="M30" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="N30" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="20" t="str">
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/emp-add/cancel</v>
+        <v>http://localhost:8080/admin/product-add/confirm</v>
       </c>
     </row>
     <row r="31" spans="2:17" ht="16" customHeight="1">
@@ -2661,40 +2687,30 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="M31" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="N31" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q31" s="20" t="str">
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/product-add</v>
+        <v>http://localhost:8080/admin/product-add/complete</v>
       </c>
     </row>
     <row r="32" spans="2:17" ht="16" customHeight="1">
@@ -2702,30 +2718,40 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="M32" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="N32" s="20" t="s">
+      <c r="F32" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="20" t="str">
+      <c r="G32" s="22"/>
+      <c r="H32" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/product-add/confirm</v>
+        <v>http://localhost:8080/admin/product-search</v>
       </c>
     </row>
     <row r="33" spans="2:17" ht="16" customHeight="1">
@@ -2733,30 +2759,34 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="M33" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="N33" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="20" t="str">
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/product-add/complete</v>
+        <v>http://localhost:8080/admin/product-search</v>
       </c>
     </row>
     <row r="34" spans="2:17" ht="16" customHeight="1">
@@ -2764,40 +2794,40 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="20" t="s">
+      <c r="F34" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="K34" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="N34" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="O34" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="P34" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q34" s="20" t="str">
+      <c r="K34" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q34" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/product</v>
+        <v>http://localhost:8080/admin/product-update/{productId}</v>
       </c>
     </row>
     <row r="35" spans="2:17" ht="16" customHeight="1">
@@ -2805,34 +2835,30 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="20" t="s">
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K35" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="N35" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="O35" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="P35" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q35" s="20" t="str">
+      <c r="K35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/product</v>
+        <v>http://localhost:8080/admin/product-update/confirm</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="16" customHeight="1">
@@ -2840,40 +2866,30 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L36" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="M36" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="N36" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="O36" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="P36" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q36" s="20" t="str">
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/product-update/{productId}</v>
+        <v>http://localhost:8080/admin/product-update/complete</v>
       </c>
     </row>
     <row r="37" spans="2:17" ht="16" customHeight="1">
@@ -2881,30 +2897,40 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="20" t="s">
+      <c r="F37" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K37" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M37" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="N37" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="20" t="str">
+      <c r="M37" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q37" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/product-update/confirm</v>
+        <v>http://localhost:8080/admin/product-delete/{productId}</v>
       </c>
     </row>
     <row r="38" spans="2:17" ht="16" customHeight="1">
@@ -2912,30 +2938,34 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L38" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="M38" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="N38" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="20" t="str">
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/product-update/complete</v>
+        <v>http://localhost:8080/admin/product-delete</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="16" customHeight="1">
@@ -2943,40 +2973,40 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="K39" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L39" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="M39" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="N39" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="O39" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="P39" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q39" s="20" t="str">
+      <c r="F39" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="O39" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="P39" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q39" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/product-delete/{productId}</v>
+        <v>http://localhost:8080/admin/product-category-add</v>
       </c>
     </row>
     <row r="40" spans="2:17" ht="16" customHeight="1">
@@ -2984,34 +3014,30 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="K40" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L40" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="M40" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="N40" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="O40" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="P40" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q40" s="20" t="str">
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/product-delete</v>
+        <v>http://localhost:8080/admin/product-category-add/confirm</v>
       </c>
     </row>
     <row r="41" spans="2:17" ht="16" customHeight="1">
@@ -3019,40 +3045,30 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="I41" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="K41" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L41" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="M41" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="N41" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="O41" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="P41" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q41" s="20" t="str">
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/product-category-add</v>
+        <v>http://localhost:8080/admin/product-category-add/complete</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="16" customHeight="1">
@@ -3060,30 +3076,40 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="K42" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L42" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="M42" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="N42" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="20" t="str">
+      <c r="F42" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="38"/>
+      <c r="H42" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M42" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="O42" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/product-category-add/confirm</v>
+        <v>http://localhost:8080/admin/order-history</v>
       </c>
     </row>
     <row r="43" spans="2:17" ht="16" customHeight="1">
@@ -3091,30 +3117,34 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L43" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="M43" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="N43" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="20" t="str">
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="O43" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/product-category-add/complete</v>
+        <v>http://localhost:8080/admin/order-history</v>
       </c>
     </row>
     <row r="44" spans="2:17" ht="16" customHeight="1">
@@ -3122,40 +3152,40 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" s="32"/>
-      <c r="H44" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I44" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q44" s="5" t="str">
+      <c r="F44" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="G44" s="38"/>
+      <c r="H44" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="M44" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N44" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="O44" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="P44" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q44" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/order-history</v>
+        <v>http://localhost:8080/admin/order-delivary</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="16" customHeight="1">
@@ -3163,34 +3193,34 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q45" s="5" t="str">
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="K45" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L45" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="N45" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="O45" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q45" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/order-history</v>
+        <v>http://localhost:8080/admin/order-delivary/{orderId}</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="16" customHeight="1">
@@ -3198,199 +3228,134 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="G46" s="32"/>
-      <c r="H46" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="P46" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q46" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/order-delivary</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" ht="16" customHeight="1">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P47" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q47" s="5" t="str">
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="K46" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="M46" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="O46" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P46" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="36" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/order-delivary/{orderId}</v>
       </c>
     </row>
-    <row r="48" spans="2:17" ht="16" customHeight="1">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N48" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q48" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>http://localhost:8080/admin/order-delivary/{orderId}</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" ht="16" customHeight="1">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I49" s="20" t="s">
+    <row r="47" spans="2:17" ht="16" customHeight="1">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J49" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="K49" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L49" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="M49" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="N49" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="O49" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="P49" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q49" s="20" t="str">
+      <c r="J47" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O47" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="P47" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q47" s="14" t="str">
         <f t="shared" si="1"/>
         <v>http://localhost:8080/admin/login</v>
       </c>
     </row>
+    <row r="49" spans="2:4" ht="18" customHeight="1">
+      <c r="B49" s="53"/>
+      <c r="D49" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="18" customHeight="1">
+      <c r="B50" s="52"/>
+      <c r="D50" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P27:P30"/>
-    <mergeCell ref="P31:P33"/>
-    <mergeCell ref="P36:P38"/>
-    <mergeCell ref="P41:P43"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O27:O30"/>
-    <mergeCell ref="O31:O33"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="F39:G40"/>
-    <mergeCell ref="F41:G43"/>
-    <mergeCell ref="F44:G45"/>
-    <mergeCell ref="F31:G33"/>
-    <mergeCell ref="F34:G35"/>
+  <mergeCells count="43">
+    <mergeCell ref="F18:G20"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="I29:I31"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="F9:G11"/>
     <mergeCell ref="F13:G15"/>
     <mergeCell ref="F16:G17"/>
-    <mergeCell ref="F36:G38"/>
-    <mergeCell ref="F18:G20"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="F27:G30"/>
-    <mergeCell ref="E25:Q25"/>
+    <mergeCell ref="F34:G36"/>
+    <mergeCell ref="F25:G28"/>
+    <mergeCell ref="E23:Q23"/>
     <mergeCell ref="E7:Q7"/>
     <mergeCell ref="D6:Q6"/>
     <mergeCell ref="C5:Q5"/>
     <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="O36:O38"/>
+    <mergeCell ref="O34:O36"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="F44:G46"/>
+    <mergeCell ref="F37:G38"/>
+    <mergeCell ref="F39:G41"/>
+    <mergeCell ref="F42:G43"/>
+    <mergeCell ref="F29:G31"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="P25:P28"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="P34:P36"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O25:O28"/>
+    <mergeCell ref="O29:O31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
